--- a/Flammable Blood/Assets/Task logs.xlsx
+++ b/Flammable Blood/Assets/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\Flammable Blood\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133C7F82-F45D-4033-9117-1C2B276CAE16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3321D47D-680E-4CFB-A0EA-9C1D253BDFE7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="120" windowWidth="18225" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>Check:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-06 Log created</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,6 +86,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,7 +128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -130,6 +137,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,7 +458,7 @@
   <dimension ref="A3:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -482,6 +492,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>

--- a/Flammable Blood/Assets/Task logs.xlsx
+++ b/Flammable Blood/Assets/Task logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\Flammable Blood\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3321D47D-680E-4CFB-A0EA-9C1D253BDFE7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4720BBBF-141E-4653-9AD0-C22930B4F8FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="120" windowWidth="18225" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>To Do:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite mesh animation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Time(Hours)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Total(h)=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,6 +71,49 @@
   </si>
   <si>
     <t>2019-04-06 Log created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimate Time(Hours)</t>
+  </si>
+  <si>
+    <t>Remarks:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basecamp (Lobby)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level proggression system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do (sequential):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Various Items (+ upgrade modules) and portals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control panel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Works hours per day:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimate days:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,16 +140,86 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -122,13 +227,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -141,8 +305,42 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - 강조색6" xfId="1" builtinId="50"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
-  <dimension ref="A3:G20"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -466,114 +664,218 @@
     <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2">
-        <f>SUM(E4:E20)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="E4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="9">
+        <f>SUM(E4:E578)</f>
+        <v>41.5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+      <c r="H4" s="10">
+        <f>ROUND(F4/G4, 0)</f>
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="7"/>
+      <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="7"/>
+      <c r="D7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="7"/>
+      <c r="D8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="7"/>
+      <c r="D9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="7"/>
+      <c r="D10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="7"/>
+      <c r="D11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="7"/>
+      <c r="D12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="7"/>
+      <c r="D13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="1" t="s">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="7"/>
+      <c r="D14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="7"/>
+      <c r="D15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="7"/>
+      <c r="D16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="7"/>
+      <c r="D17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="7"/>
+      <c r="D18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="7"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="7"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="7"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="7"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="7"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Flammable Blood/Assets/Task logs.xlsx
+++ b/Flammable Blood/Assets/Task logs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\Flammable Blood\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4720BBBF-141E-4653-9AD0-C22930B4F8FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A41828-6A4E-48C5-893F-1B01FDDA9D5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>Estimate days:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround (+ Parallax)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC Animation (Basic)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +668,7 @@
   <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -710,14 +722,14 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(E4:E578)</f>
-        <v>41.5</v>
+        <v>52</v>
       </c>
       <c r="G4" s="9">
         <v>3</v>
       </c>
       <c r="H4" s="10">
         <f>ROUND(F4/G4, 0)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -726,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -735,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -753,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -776,90 +788,102 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="7"/>
-      <c r="D11" s="13" t="s">
-        <v>8</v>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E11" s="2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="7"/>
-      <c r="D12" s="13" t="s">
-        <v>9</v>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
       <c r="D13" s="13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
       <c r="D14" s="13" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
-      <c r="D15" s="13" t="s">
-        <v>21</v>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
       <c r="D18" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="7"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="20" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>

--- a/Flammable Blood/Assets/Task logs.xlsx
+++ b/Flammable Blood/Assets/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\Flammable Blood\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A41828-6A4E-48C5-893F-1B01FDDA9D5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F994C87E-0B02-4630-AAEF-8700EFABB98D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>NPC Animation (Basic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Particle FX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
-  <dimension ref="A2:H24"/>
+  <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -722,14 +726,14 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(E4:E578)</f>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G4" s="9">
         <v>3</v>
       </c>
       <c r="H4" s="10">
         <f>ROUND(F4/G4, 0)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -819,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -887,8 +891,12 @@
     </row>
     <row r="22" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="23" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
@@ -899,6 +907,61 @@
       <c r="C24" s="7"/>
       <c r="D24" s="13"/>
       <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="7"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="7"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="7"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="7"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="7"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="7"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="7"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="7"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="7"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="7"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="7"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
